--- a/数据整理/stocks/A股/上证主板/600115-中国东航.xlsx
+++ b/数据整理/stocks/A股/上证主板/600115-中国东航.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1997,4 +1998,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600115-中国东航.xlsx
+++ b/数据整理/stocks/A股/上证主板/600115-中国东航.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2006,7 +2007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2017,17 +2018,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2037,14 +2058,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.13</v>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>149.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.9572</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2053,13 +2096,991 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1106</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2088</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2999</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2933</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2225</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1283</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0067</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9708</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8350</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5351</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5259</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4750</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1527</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1407</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004481</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>16</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>14.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600115-中国东航.xlsx
+++ b/数据整理/stocks/A股/上证主板/600115-中国东航.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3011,7 +3012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3022,17 +3023,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3042,14 +3063,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.71</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3058,14 +3101,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.13</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2688</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3074,13 +3139,1007 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2379</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0058</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8054</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2823</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1442</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0237</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9709</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8587</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8141</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5099</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4761</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3149</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>61.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>16</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>14.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600115-中国东航.xlsx
+++ b/数据整理/stocks/A股/上证主板/600115-中国东航.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4054,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4065,17 +4066,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4085,14 +4106,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.56</v>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3062</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4101,14 +4144,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.71</v>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3537</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4117,14 +4182,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.13</v>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7900</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4133,13 +4220,1403 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3530</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6196</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5625</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3986</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1641</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0056</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9975</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9769</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9460</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7779</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5979</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5584</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4703</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4204</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3318</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2694</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>14.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600115-中国东航.xlsx
+++ b/数据整理/stocks/A股/上证主板/600115-中国东航.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>27.17</v>
+        <v>27.52</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>20.56</v>
+        <v>27.17</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>26.71</v>
+        <v>20.56</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>18.13</v>
+        <v>26.71</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>14.86</v>
       </c>
     </row>
@@ -566,6 +583,2076 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5986</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9471</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0907</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5967</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4399</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4082</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3794</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9444</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010336</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9159</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8928</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8424</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8019</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7319</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4961</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4095</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3798</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013607</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2467</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013623</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>湘财周期轮动一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013712</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010337</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中欧悦享生活混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.28</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013608</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013713</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>方正富邦鑫益一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2025,7 +4112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3067,7 +5154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4071,7 +6158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4961,7 +7048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600115-中国东航.xlsx
+++ b/数据整理/stocks/A股/上证主板/600115-中国东航.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" t="n">
-        <v>27.52</v>
+        <v>32.52</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>27.17</v>
+        <v>27.52</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>20.56</v>
+        <v>27.17</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>26.71</v>
+        <v>20.56</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>18.13</v>
+        <v>26.71</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>14.86</v>
       </c>
     </row>
@@ -583,6 +600,2038 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9731</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5789</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7829</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3604</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8101</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012449</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7219</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5959</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4491</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9805</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9159</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8936</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159766</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8734</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商优质成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8277</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6641</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6248</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5396</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5301</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5301</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012420</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发价值领先混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4935</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4346</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014734</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发睿合混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4151</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4025</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商景气精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3547</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013607</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3489</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3414</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012260</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>65.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2990</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013623</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>湘财周期轮动一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>64.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>562510</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏中证旅游主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2493</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014735</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发睿合混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商景气精选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010072</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1310</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010073</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>方正富邦策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013608</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发睿恒进取一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012261</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发睿明优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>65.70</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2652,7 +4701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4112,7 +6161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5154,7 +7203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6158,7 +8207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7048,7 +9097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
